--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1444.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1444.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.779478845220848</v>
+        <v>1.269585132598877</v>
       </c>
       <c r="B1">
-        <v>2.134956196294898</v>
+        <v>2.512616872787476</v>
       </c>
       <c r="C1">
-        <v>2.861597247151315</v>
+        <v>5.067704677581787</v>
       </c>
       <c r="D1">
-        <v>1.848162259147209</v>
+        <v>2.86467432975769</v>
       </c>
       <c r="E1">
-        <v>0.5924693369643076</v>
+        <v>1.096312046051025</v>
       </c>
     </row>
   </sheetData>
